--- a/biology/Botanique/Marcel_Locquin/Marcel_Locquin.xlsx
+++ b/biology/Botanique/Marcel_Locquin/Marcel_Locquin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcel Locquin (dit aussi Marcel V. Locquin) est un chercheur français, mycologue et biochimiste, né le 6 mai 1922 à Lyon et mort le 18 mars 2009.
-Il est consultant de la division des sciences de l'ingénieur et de la technologie de l'UNESCO (section qui n'existe plus depuis 2000)[1], organisation avec laquelle il a fondé l'académie francophone d'ingénieurs[2] dont il est secrétaire perpétuel.
-Biochimiste de formation et docteur en sciences il a été attaché  au CNRS de 1946 à 1951 à la fin de ses études[3]. Il est spécialisé dans la mycologie. Il a été classé "Homme de l'année" par l'American Biographical Institute (en) (1995 et 1998). Il est aussi l'auteur d'études sur le langage des origines à partir desquelles il a construit sa théorie dite du langage archétypal, laquelle n'a pas reçu d'écho dans le monde scientifique.
+Il est consultant de la division des sciences de l'ingénieur et de la technologie de l'UNESCO (section qui n'existe plus depuis 2000), organisation avec laquelle il a fondé l'académie francophone d'ingénieurs dont il est secrétaire perpétuel.
+Biochimiste de formation et docteur en sciences il a été attaché  au CNRS de 1946 à 1951 à la fin de ses études. Il est spécialisé dans la mycologie. Il a été classé "Homme de l'année" par l'American Biographical Institute (en) (1995 et 1998). Il est aussi l'auteur d'études sur le langage des origines à partir desquelles il a construit sa théorie dite du langage archétypal, laquelle n'a pas reçu d'écho dans le monde scientifique.
 Il a défriché aussi le domaine radiesthésique, notamment en travaillant sur les ''ondes de forme''.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Travaux de mycologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a écrit les ouvrages de références sur le sujet (Que sais-je, etc.).
 </t>
@@ -545,9 +559,11 @@
           <t>Linguistique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'est passionné en autodidacte pour l'origine des langues et a élaboré une théorie originale et personnelle sur le « proto-langage », qu'il a appelé langage archétypal, mais qui n'a pas rencontré d'écho dans la communauté des linguistes ou des historiens et il n'est d'ailleurs pas dans le Dictionnaire biographique des scientifiques de Georges Salentiny[4]. Dans cette théorie, il identifie ce qu'il appelle des phonèmes archétypaux, lesquels phonèmes indiquent le sens ésotérique du mot qu'ils composent.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'est passionné en autodidacte pour l'origine des langues et a élaboré une théorie originale et personnelle sur le « proto-langage », qu'il a appelé langage archétypal, mais qui n'a pas rencontré d'écho dans la communauté des linguistes ou des historiens et il n'est d'ailleurs pas dans le Dictionnaire biographique des scientifiques de Georges Salentiny. Dans cette théorie, il identifie ce qu'il appelle des phonèmes archétypaux, lesquels phonèmes indiquent le sens ésotérique du mot qu'ils composent.
 Dans les années 1990, il coordonne le Conseil culturel du Musée des langues du monde sous la direction de Jean Dausset.
 </t>
         </is>
@@ -577,7 +593,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1960 - Champignons comestibles et vénéneux avec Bengt Cortin, éd. Fernand Nathan
 1963 - Les Champignons, Que sais-je ?.
